--- a/input/Template_EMIS_All.xlsx
+++ b/input/Template_EMIS_All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/PiN_app_dev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB93B9E7-FCAA-4092-9779-2202E5EB6006}"/>
+  <xr:revisionPtr revIDLastSave="470" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C972779A-525D-4542-8704-BFEE1954FB96}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>martina.vit</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{45145477-01C4-47B4-A1D2-61B57AC38C93}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0B228A8D-3384-44AD-9F3D-BDCBAF678298}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2DEB68FB-5E7F-4B6B-8D64-71751F1A5F63}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{EE3ED0C1-ED08-4926-B166-41A469355653}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Admin Pcode</t>
   </si>
@@ -124,13 +124,67 @@
   </si>
   <si>
     <t>threshold PTR (Change it according to the context average PTR)</t>
+  </si>
+  <si>
+    <t>Protection indicator value -- continuous / discrete numerical variable</t>
+  </si>
+  <si>
+    <t>threshold for numerical variable --&gt; if above the child is in need</t>
+  </si>
+  <si>
+    <t>Protection indicator value -- categorical variable</t>
+  </si>
+  <si>
+    <t>category for categorical variable --&gt; if selected the child is in need</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enrolment rate of HOST children. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estimated using data from the previous year's MSNA or expert judgment/knowledge specific to the country.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enrolment rate of IDP children. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estimated using data from the previous year's MSNA or expert judgment/knowledge specific to the country.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enrolment rate of RET community children. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estimated using data from the previous year's MSNA or expert judgment/knowledge specific to the country.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +232,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +258,27 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="135">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color rgb="FFFFFFCC"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,30 +301,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,61 +690,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DEB9B6-621B-4484-8A08-69293BE9C3A3}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="37" style="6" customWidth="1"/>
-    <col min="8" max="10" width="22.85546875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="7" customWidth="1"/>
+    <col min="6" max="8" width="22.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="37" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="10" customWidth="1"/>
+    <col min="15" max="17" width="22.85546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="84" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:B27" name="pop value"/>
+    <protectedRange sqref="A2:B27" name="pop value_1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
